--- a/data/pca/factorExposure/factorExposure_2015-11-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01645304396129713</v>
+        <v>0.01377668889218976</v>
       </c>
       <c r="C2">
-        <v>-0.03556514369418429</v>
+        <v>-0.03287612649628029</v>
       </c>
       <c r="D2">
-        <v>0.08767137933160352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.122183094726825</v>
+      </c>
+      <c r="E2">
+        <v>-0.06950210603294736</v>
+      </c>
+      <c r="F2">
+        <v>-0.02450737387501944</v>
+      </c>
+      <c r="G2">
+        <v>-0.06895719361991133</v>
+      </c>
+      <c r="H2">
+        <v>0.09921265942055195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01881324899998097</v>
+        <v>0.01095568967578755</v>
       </c>
       <c r="C3">
-        <v>-0.05246523445089775</v>
+        <v>-0.03760034377881991</v>
       </c>
       <c r="D3">
-        <v>0.1219899927269212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07395690218325821</v>
+      </c>
+      <c r="E3">
+        <v>-0.04680659025264363</v>
+      </c>
+      <c r="F3">
+        <v>-0.04214005713222958</v>
+      </c>
+      <c r="G3">
+        <v>-0.09792383971851115</v>
+      </c>
+      <c r="H3">
+        <v>0.01123767504374718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05435225482325299</v>
+        <v>0.05325658491070598</v>
       </c>
       <c r="C4">
-        <v>-0.03954499654832891</v>
+        <v>-0.06323310433811843</v>
       </c>
       <c r="D4">
-        <v>0.1264440758174276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1451849594792449</v>
+      </c>
+      <c r="E4">
+        <v>-0.05359196630440971</v>
+      </c>
+      <c r="F4">
+        <v>-0.02026320314757101</v>
+      </c>
+      <c r="G4">
+        <v>0.0380797342383304</v>
+      </c>
+      <c r="H4">
+        <v>-0.01899429169914682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04370462521464827</v>
+        <v>0.03954864161248065</v>
       </c>
       <c r="C6">
-        <v>-0.00942267943265028</v>
+        <v>-0.02833540062907799</v>
       </c>
       <c r="D6">
-        <v>0.1336887538705907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1327204543703081</v>
+      </c>
+      <c r="E6">
+        <v>-0.03058977590066088</v>
+      </c>
+      <c r="F6">
+        <v>-0.01718280063412999</v>
+      </c>
+      <c r="G6">
+        <v>-0.01002072149107979</v>
+      </c>
+      <c r="H6">
+        <v>0.01982959336845872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02236415352828981</v>
+        <v>0.01397189252136752</v>
       </c>
       <c r="C7">
-        <v>-0.01942560758613876</v>
+        <v>-0.0313451895744233</v>
       </c>
       <c r="D7">
-        <v>0.09592082795509248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09483007702172659</v>
+      </c>
+      <c r="E7">
+        <v>-0.03151867757778851</v>
+      </c>
+      <c r="F7">
+        <v>-0.01928670370994255</v>
+      </c>
+      <c r="G7">
+        <v>0.00446010384335946</v>
+      </c>
+      <c r="H7">
+        <v>0.1167502421988756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0102559136155663</v>
+        <v>0.006175244391377652</v>
       </c>
       <c r="C8">
-        <v>-0.03084927787071546</v>
+        <v>-0.03732029152413257</v>
       </c>
       <c r="D8">
-        <v>0.05361678518250088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07145132783607179</v>
+      </c>
+      <c r="E8">
+        <v>-0.03568768988464893</v>
+      </c>
+      <c r="F8">
+        <v>-0.04244222610687416</v>
+      </c>
+      <c r="G8">
+        <v>-0.01276396401451222</v>
+      </c>
+      <c r="H8">
+        <v>0.04726199313774364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04394050853854613</v>
+        <v>0.0416312188201227</v>
       </c>
       <c r="C9">
-        <v>-0.03981668340432561</v>
+        <v>-0.05944314982300976</v>
       </c>
       <c r="D9">
-        <v>0.1107806036524566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1229662701945648</v>
+      </c>
+      <c r="E9">
+        <v>-0.03832008747663691</v>
+      </c>
+      <c r="F9">
+        <v>-0.002864573172522624</v>
+      </c>
+      <c r="G9">
+        <v>0.02820642762178191</v>
+      </c>
+      <c r="H9">
+        <v>0.008890848447388274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09213650106509563</v>
+        <v>0.1399139517403313</v>
       </c>
       <c r="C10">
-        <v>0.1949987461527316</v>
+        <v>0.1864042853910749</v>
       </c>
       <c r="D10">
-        <v>4.438840216691301e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001750462991787266</v>
+      </c>
+      <c r="E10">
+        <v>-0.04403909968795786</v>
+      </c>
+      <c r="F10">
+        <v>-0.02292087676051912</v>
+      </c>
+      <c r="G10">
+        <v>0.03405728865706315</v>
+      </c>
+      <c r="H10">
+        <v>-0.004555481973033277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03436007406206257</v>
+        <v>0.02746778226432466</v>
       </c>
       <c r="C11">
-        <v>-0.03949460018387104</v>
+        <v>-0.04486273122884276</v>
       </c>
       <c r="D11">
-        <v>0.05683485286115185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05786697288797095</v>
+      </c>
+      <c r="E11">
+        <v>0.003766717985858684</v>
+      </c>
+      <c r="F11">
+        <v>-0.0009901994033867944</v>
+      </c>
+      <c r="G11">
+        <v>0.0001991259889665462</v>
+      </c>
+      <c r="H11">
+        <v>0.0495422073545489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04081164855191482</v>
+        <v>0.03281810287663732</v>
       </c>
       <c r="C12">
-        <v>-0.04015937248885141</v>
+        <v>-0.04604057239368243</v>
       </c>
       <c r="D12">
-        <v>0.05910427900226459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05716058441512702</v>
+      </c>
+      <c r="E12">
+        <v>-0.003302390279613896</v>
+      </c>
+      <c r="F12">
+        <v>0.006432164782707152</v>
+      </c>
+      <c r="G12">
+        <v>0.0004554699207130581</v>
+      </c>
+      <c r="H12">
+        <v>0.06174899217941129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01913112294824011</v>
+        <v>0.01812820519340177</v>
       </c>
       <c r="C13">
-        <v>-0.03225952324549246</v>
+        <v>-0.03788549307864907</v>
       </c>
       <c r="D13">
-        <v>0.1231849962711823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1440969510742378</v>
+      </c>
+      <c r="E13">
+        <v>-0.05144164159343026</v>
+      </c>
+      <c r="F13">
+        <v>-0.03582725533624369</v>
+      </c>
+      <c r="G13">
+        <v>-0.007618187193242549</v>
+      </c>
+      <c r="H13">
+        <v>0.1045420743752745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01184972420871481</v>
+        <v>0.009232654472576126</v>
       </c>
       <c r="C14">
-        <v>-0.0180543090577079</v>
+        <v>-0.02432923398715772</v>
       </c>
       <c r="D14">
-        <v>0.07811730361618417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08693666593981574</v>
+      </c>
+      <c r="E14">
+        <v>-0.03766513564859849</v>
+      </c>
+      <c r="F14">
+        <v>0.008510571541711403</v>
+      </c>
+      <c r="G14">
+        <v>-0.01004383948061712</v>
+      </c>
+      <c r="H14">
+        <v>0.1098609427847331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002091763811225483</v>
+        <v>0.001652759590988029</v>
       </c>
       <c r="C15">
-        <v>-0.001089447479556535</v>
+        <v>-0.01005235509965307</v>
       </c>
       <c r="D15">
-        <v>0.003301046232755229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03252079912763987</v>
+      </c>
+      <c r="E15">
+        <v>-0.00712999980030335</v>
+      </c>
+      <c r="F15">
+        <v>0.0009951031446732931</v>
+      </c>
+      <c r="G15">
+        <v>-0.009737589529111081</v>
+      </c>
+      <c r="H15">
+        <v>0.01124180575666201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03498137254265429</v>
+        <v>0.02844409983428574</v>
       </c>
       <c r="C16">
-        <v>-0.04167588255692081</v>
+        <v>-0.04484535880238531</v>
       </c>
       <c r="D16">
-        <v>0.06724744669321681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06151595316010661</v>
+      </c>
+      <c r="E16">
+        <v>-0.009356434451697317</v>
+      </c>
+      <c r="F16">
+        <v>0.006649342101088239</v>
+      </c>
+      <c r="G16">
+        <v>-0.0002910214307248574</v>
+      </c>
+      <c r="H16">
+        <v>0.06167051911578209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009769618221743487</v>
+        <v>0.006278514876570279</v>
       </c>
       <c r="C19">
-        <v>-0.02525239595324444</v>
+        <v>-0.02053206068425557</v>
       </c>
       <c r="D19">
-        <v>0.1677284797511951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1241777711504423</v>
+      </c>
+      <c r="E19">
+        <v>-0.06495241421081856</v>
+      </c>
+      <c r="F19">
+        <v>0.005577034910068356</v>
+      </c>
+      <c r="G19">
+        <v>-0.01939830796021231</v>
+      </c>
+      <c r="H19">
+        <v>0.06687137988452857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01953572281666413</v>
+        <v>0.01539769418387147</v>
       </c>
       <c r="C20">
-        <v>-0.02458032152443222</v>
+        <v>-0.03311340939967104</v>
       </c>
       <c r="D20">
-        <v>0.0857901980224058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09844068051162803</v>
+      </c>
+      <c r="E20">
+        <v>-0.05134792256622938</v>
+      </c>
+      <c r="F20">
+        <v>0.003181128661926936</v>
+      </c>
+      <c r="G20">
+        <v>0.0005354061159590166</v>
+      </c>
+      <c r="H20">
+        <v>0.06123235795573316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01554132005289325</v>
+        <v>0.01347239591727199</v>
       </c>
       <c r="C21">
-        <v>-0.03203112282780159</v>
+        <v>-0.03750484130293774</v>
       </c>
       <c r="D21">
-        <v>0.1269636088706712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1377363143853935</v>
+      </c>
+      <c r="E21">
+        <v>-0.0892903020270724</v>
+      </c>
+      <c r="F21">
+        <v>-0.001634539068816152</v>
+      </c>
+      <c r="G21">
+        <v>0.02579620878742293</v>
+      </c>
+      <c r="H21">
+        <v>0.1241128823590657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009107783535042924</v>
+        <v>0.005617629619244018</v>
       </c>
       <c r="C22">
-        <v>-0.02977675017105808</v>
+        <v>-0.0414284552913959</v>
       </c>
       <c r="D22">
-        <v>0.08649274822342243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1441392670696532</v>
+      </c>
+      <c r="E22">
+        <v>-0.02984790534385785</v>
+      </c>
+      <c r="F22">
+        <v>-0.08956275383977731</v>
+      </c>
+      <c r="G22">
+        <v>-0.07310633889642756</v>
+      </c>
+      <c r="H22">
+        <v>-0.05338604703417669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009230966197501685</v>
+        <v>0.005722111691161818</v>
       </c>
       <c r="C23">
-        <v>-0.02970301876917437</v>
+        <v>-0.0418993714598649</v>
       </c>
       <c r="D23">
-        <v>0.08578870755990163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1435939654483705</v>
+      </c>
+      <c r="E23">
+        <v>-0.03013285384209335</v>
+      </c>
+      <c r="F23">
+        <v>-0.0895327061988056</v>
+      </c>
+      <c r="G23">
+        <v>-0.07216976388216351</v>
+      </c>
+      <c r="H23">
+        <v>-0.05355807318624364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03819281717787416</v>
+        <v>0.02975577674434363</v>
       </c>
       <c r="C24">
-        <v>-0.05007489922652496</v>
+        <v>-0.05654487519831037</v>
       </c>
       <c r="D24">
-        <v>0.06438797515072009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06518947527222289</v>
+      </c>
+      <c r="E24">
+        <v>-0.01358952789582951</v>
+      </c>
+      <c r="F24">
+        <v>0.004949687753768734</v>
+      </c>
+      <c r="G24">
+        <v>0.00811906567489383</v>
+      </c>
+      <c r="H24">
+        <v>0.07249038816371921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0417426204934834</v>
+        <v>0.03429735868802934</v>
       </c>
       <c r="C25">
-        <v>-0.04755370174952645</v>
+        <v>-0.05366291320249227</v>
       </c>
       <c r="D25">
-        <v>0.06411271904252851</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0624330886576071</v>
+      </c>
+      <c r="E25">
+        <v>-0.01343968231888716</v>
+      </c>
+      <c r="F25">
+        <v>-0.001859548800791094</v>
+      </c>
+      <c r="G25">
+        <v>0.007367437300691529</v>
+      </c>
+      <c r="H25">
+        <v>0.05594691004027654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02060433669534746</v>
+        <v>0.0182241774305292</v>
       </c>
       <c r="C26">
-        <v>-0.008747114330053726</v>
+        <v>-0.01767505083654413</v>
       </c>
       <c r="D26">
-        <v>0.05249037307900668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06298823010932081</v>
+      </c>
+      <c r="E26">
+        <v>-0.02743027952586172</v>
+      </c>
+      <c r="F26">
+        <v>-0.0043341496859227</v>
+      </c>
+      <c r="G26">
+        <v>-0.005576678283192296</v>
+      </c>
+      <c r="H26">
+        <v>0.06720153629766192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1408329607339797</v>
+        <v>0.1999701752143188</v>
       </c>
       <c r="C28">
-        <v>0.274958125171583</v>
+        <v>0.2505393648825293</v>
       </c>
       <c r="D28">
-        <v>-0.031516458366029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0129197988906857</v>
+      </c>
+      <c r="E28">
+        <v>-0.07021304394707645</v>
+      </c>
+      <c r="F28">
+        <v>-0.004990381186952129</v>
+      </c>
+      <c r="G28">
+        <v>0.06501979975453283</v>
+      </c>
+      <c r="H28">
+        <v>0.0100068659892953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.008322002891431382</v>
+        <v>0.006838665214188437</v>
       </c>
       <c r="C29">
-        <v>-0.01862033475590432</v>
+        <v>-0.02357251268670025</v>
       </c>
       <c r="D29">
-        <v>0.06238535464668468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08138145156537949</v>
+      </c>
+      <c r="E29">
+        <v>-0.03383148198818606</v>
+      </c>
+      <c r="F29">
+        <v>-0.007166211009354425</v>
+      </c>
+      <c r="G29">
+        <v>0.007918330685922599</v>
+      </c>
+      <c r="H29">
+        <v>0.1143742731221477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03888627061116957</v>
+        <v>0.04061676989322462</v>
       </c>
       <c r="C30">
-        <v>-0.0395694921258864</v>
+        <v>-0.0607591432205216</v>
       </c>
       <c r="D30">
-        <v>0.1652054353357556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1784726642356001</v>
+      </c>
+      <c r="E30">
+        <v>-0.01974674705179734</v>
+      </c>
+      <c r="F30">
+        <v>-0.009396962356508453</v>
+      </c>
+      <c r="G30">
+        <v>-0.0230794382011073</v>
+      </c>
+      <c r="H30">
+        <v>0.01038925561686935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06936944126346675</v>
+        <v>0.05519381747238961</v>
       </c>
       <c r="C31">
-        <v>-0.04961008752329457</v>
+        <v>-0.07238185615786677</v>
       </c>
       <c r="D31">
-        <v>0.06575260793780746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05522242948251952</v>
+      </c>
+      <c r="E31">
+        <v>-0.03114703021337132</v>
+      </c>
+      <c r="F31">
+        <v>-0.03333599118422833</v>
+      </c>
+      <c r="G31">
+        <v>0.02063064615348285</v>
+      </c>
+      <c r="H31">
+        <v>0.0454702519925371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007302234751473994</v>
+        <v>0.01110131640749929</v>
       </c>
       <c r="C32">
-        <v>-0.0166197610669075</v>
+        <v>-0.01908051676560966</v>
       </c>
       <c r="D32">
-        <v>0.06172025842002658</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09933147128073709</v>
+      </c>
+      <c r="E32">
+        <v>-0.08982266908485724</v>
+      </c>
+      <c r="F32">
+        <v>-0.01865183849041373</v>
+      </c>
+      <c r="G32">
+        <v>0.024789467872196</v>
+      </c>
+      <c r="H32">
+        <v>0.09761563960867714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02616750375635447</v>
+        <v>0.02231367340629355</v>
       </c>
       <c r="C33">
-        <v>-0.02707328612813355</v>
+        <v>-0.04324494226277346</v>
       </c>
       <c r="D33">
-        <v>0.1311669243491727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1311798247365639</v>
+      </c>
+      <c r="E33">
+        <v>-0.04326672141777229</v>
+      </c>
+      <c r="F33">
+        <v>-0.01798264715852439</v>
+      </c>
+      <c r="G33">
+        <v>-0.001665348492512191</v>
+      </c>
+      <c r="H33">
+        <v>0.07062969997475511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03621186549800723</v>
+        <v>0.02647892747035097</v>
       </c>
       <c r="C34">
-        <v>-0.06178756004777983</v>
+        <v>-0.06116273832267319</v>
       </c>
       <c r="D34">
-        <v>0.06853167452687799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05559528162687662</v>
+      </c>
+      <c r="E34">
+        <v>0.003557952532236092</v>
+      </c>
+      <c r="F34">
+        <v>0.01094933000189924</v>
+      </c>
+      <c r="G34">
+        <v>-0.0004286446799001762</v>
+      </c>
+      <c r="H34">
+        <v>0.07745263625611545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007836924366641906</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0008039675102023004</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005039389384727805</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005861680028175509</v>
+      </c>
+      <c r="F35">
+        <v>8.530122546717858e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.0019228591597661</v>
+      </c>
+      <c r="H35">
+        <v>0.00266827831072769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02098126926646927</v>
+        <v>0.01817271140175546</v>
       </c>
       <c r="C36">
-        <v>-0.003254017458570894</v>
+        <v>-0.01464333598728085</v>
       </c>
       <c r="D36">
-        <v>0.07272038663759745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07750364021914236</v>
+      </c>
+      <c r="E36">
+        <v>-0.03483653584642869</v>
+      </c>
+      <c r="F36">
+        <v>0.0008476762109413706</v>
+      </c>
+      <c r="G36">
+        <v>0.01028454297490883</v>
+      </c>
+      <c r="H36">
+        <v>0.06062214706018947</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02269234585609335</v>
+        <v>0.01989957291178653</v>
       </c>
       <c r="C38">
-        <v>-0.01370401984500147</v>
+        <v>-0.02065990469086893</v>
       </c>
       <c r="D38">
-        <v>0.05126086704053929</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0584138617549024</v>
+      </c>
+      <c r="E38">
+        <v>-0.03647673181602645</v>
+      </c>
+      <c r="F38">
+        <v>0.003017056463010622</v>
+      </c>
+      <c r="G38">
+        <v>-0.03776352146528603</v>
+      </c>
+      <c r="H38">
+        <v>0.03916804116347222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0403864445053975</v>
+        <v>0.03502524376082221</v>
       </c>
       <c r="C39">
-        <v>-0.05185326451701853</v>
+        <v>-0.06493685827210699</v>
       </c>
       <c r="D39">
-        <v>0.08977564573423644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1043331203198907</v>
+      </c>
+      <c r="E39">
+        <v>-0.007345557746042687</v>
+      </c>
+      <c r="F39">
+        <v>0.02504106210312377</v>
+      </c>
+      <c r="G39">
+        <v>-0.002179855604462291</v>
+      </c>
+      <c r="H39">
+        <v>0.09021527557851312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02022315197842491</v>
+        <v>0.01345247750991837</v>
       </c>
       <c r="C40">
-        <v>-0.04897064951256073</v>
+        <v>-0.03868548485100003</v>
       </c>
       <c r="D40">
-        <v>0.07466441876105817</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08420245290524092</v>
+      </c>
+      <c r="E40">
+        <v>-0.06430318775566761</v>
+      </c>
+      <c r="F40">
+        <v>-0.06531650051000447</v>
+      </c>
+      <c r="G40">
+        <v>-0.0607201565027879</v>
+      </c>
+      <c r="H40">
+        <v>0.1639860575744435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02539782201127058</v>
+        <v>0.02318022148746572</v>
       </c>
       <c r="C41">
-        <v>0.006438674103576772</v>
+        <v>-0.008205247464111019</v>
       </c>
       <c r="D41">
-        <v>0.06620116526918798</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05428955781845637</v>
+      </c>
+      <c r="E41">
+        <v>-0.0533266556820376</v>
+      </c>
+      <c r="F41">
+        <v>-0.004606941428480115</v>
+      </c>
+      <c r="G41">
+        <v>-0.01269205262807175</v>
+      </c>
+      <c r="H41">
+        <v>0.04809146301564616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03064402089145136</v>
+        <v>0.0221985683001843</v>
       </c>
       <c r="C43">
-        <v>-0.005599377716458613</v>
+        <v>-0.01830526550799259</v>
       </c>
       <c r="D43">
-        <v>0.1028950826631257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08367337050333093</v>
+      </c>
+      <c r="E43">
+        <v>-0.03487619113063845</v>
+      </c>
+      <c r="F43">
+        <v>-0.004558636903834934</v>
+      </c>
+      <c r="G43">
+        <v>-0.01159410369440057</v>
+      </c>
+      <c r="H43">
+        <v>0.07256031919239331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01840796314160519</v>
+        <v>0.01677558187294086</v>
       </c>
       <c r="C44">
-        <v>-0.04758296477471308</v>
+        <v>-0.04383306100883572</v>
       </c>
       <c r="D44">
-        <v>0.0766006935452352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09853819637903957</v>
+      </c>
+      <c r="E44">
+        <v>-0.06944895749714444</v>
+      </c>
+      <c r="F44">
+        <v>-0.008754631981753283</v>
+      </c>
+      <c r="G44">
+        <v>-0.003145424604092414</v>
+      </c>
+      <c r="H44">
+        <v>0.07465263167371046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02064378365418578</v>
+        <v>0.01568209628386403</v>
       </c>
       <c r="C46">
-        <v>-0.01900237734787669</v>
+        <v>-0.0284221873704986</v>
       </c>
       <c r="D46">
-        <v>0.07252515778579474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08664888432565326</v>
+      </c>
+      <c r="E46">
+        <v>-0.0391844096014564</v>
+      </c>
+      <c r="F46">
+        <v>0.0166658154787467</v>
+      </c>
+      <c r="G46">
+        <v>0.01596348200125158</v>
+      </c>
+      <c r="H46">
+        <v>0.114664362979023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09463975387256643</v>
+        <v>0.08197671186838823</v>
       </c>
       <c r="C47">
-        <v>-0.06356620180650162</v>
+        <v>-0.08921913512731772</v>
       </c>
       <c r="D47">
-        <v>0.04214677460540244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03276903527345139</v>
+      </c>
+      <c r="E47">
+        <v>-0.03594770893432292</v>
+      </c>
+      <c r="F47">
+        <v>-0.02165766444191624</v>
+      </c>
+      <c r="G47">
+        <v>0.04181266996437655</v>
+      </c>
+      <c r="H47">
+        <v>0.0166478096837074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0168210459602357</v>
+        <v>0.01610095206047237</v>
       </c>
       <c r="C48">
-        <v>-0.01520847341852239</v>
+        <v>-0.01966288981014456</v>
       </c>
       <c r="D48">
-        <v>0.06584799123968904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07285422571400042</v>
+      </c>
+      <c r="E48">
+        <v>-0.04981060138365805</v>
+      </c>
+      <c r="F48">
+        <v>0.001830456954305226</v>
+      </c>
+      <c r="G48">
+        <v>0.007510677859129409</v>
+      </c>
+      <c r="H48">
+        <v>0.06511131759011762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06310281385421078</v>
+        <v>0.05333657855368187</v>
       </c>
       <c r="C50">
-        <v>-0.05237254010910154</v>
+        <v>-0.06680247398694404</v>
       </c>
       <c r="D50">
-        <v>0.05908248653610639</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05382383428279128</v>
+      </c>
+      <c r="E50">
+        <v>-0.04275301892833849</v>
+      </c>
+      <c r="F50">
+        <v>-0.04191404199801724</v>
+      </c>
+      <c r="G50">
+        <v>-0.01150458459806047</v>
+      </c>
+      <c r="H50">
+        <v>0.04795398009627612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009224809700065718</v>
+        <v>0.009555098098746108</v>
       </c>
       <c r="C51">
-        <v>-0.01872366912275092</v>
+        <v>-0.01977268077636449</v>
       </c>
       <c r="D51">
-        <v>0.08156852030174365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08837563580718029</v>
+      </c>
+      <c r="E51">
+        <v>-0.0148254116408144</v>
+      </c>
+      <c r="F51">
+        <v>0.0009700759498341676</v>
+      </c>
+      <c r="G51">
+        <v>-0.01525713309396346</v>
+      </c>
+      <c r="H51">
+        <v>0.07553670590095703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0871367305615609</v>
+        <v>0.0850138343538769</v>
       </c>
       <c r="C53">
-        <v>-0.09322456644646632</v>
+        <v>-0.1027548388247879</v>
       </c>
       <c r="D53">
-        <v>0.01408322092241601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01012159915317061</v>
+      </c>
+      <c r="E53">
+        <v>-0.1051935640222828</v>
+      </c>
+      <c r="F53">
+        <v>-0.04581470162653815</v>
+      </c>
+      <c r="G53">
+        <v>0.08787258288205296</v>
+      </c>
+      <c r="H53">
+        <v>0.007051000016186985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03281173666721551</v>
+        <v>0.02573703614656586</v>
       </c>
       <c r="C54">
-        <v>-0.03491875840871613</v>
+        <v>-0.03650688049595673</v>
       </c>
       <c r="D54">
-        <v>0.08717641088102539</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08660310099760385</v>
+      </c>
+      <c r="E54">
+        <v>-0.04325880337009665</v>
+      </c>
+      <c r="F54">
+        <v>0.01151478870956778</v>
+      </c>
+      <c r="G54">
+        <v>-0.0192050069130436</v>
+      </c>
+      <c r="H54">
+        <v>0.1161390722336283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09056834534305759</v>
+        <v>0.0843666856599001</v>
       </c>
       <c r="C55">
-        <v>-0.06269833516937409</v>
+        <v>-0.08131536401978903</v>
       </c>
       <c r="D55">
-        <v>-0.007525491920300147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008012893439709198</v>
+      </c>
+      <c r="E55">
+        <v>-0.06016862814183734</v>
+      </c>
+      <c r="F55">
+        <v>-0.04300258719319099</v>
+      </c>
+      <c r="G55">
+        <v>0.04342159465756615</v>
+      </c>
+      <c r="H55">
+        <v>-0.00409626684266043</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1405040978507268</v>
+        <v>0.1281917130379922</v>
       </c>
       <c r="C56">
-        <v>-0.09557923832878724</v>
+        <v>-0.1262017319587972</v>
       </c>
       <c r="D56">
-        <v>0.005088144712324294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008616997649088166</v>
+      </c>
+      <c r="E56">
+        <v>-0.06301552139898343</v>
+      </c>
+      <c r="F56">
+        <v>-0.03489955510219273</v>
+      </c>
+      <c r="G56">
+        <v>0.04576976311908672</v>
+      </c>
+      <c r="H56">
+        <v>-0.007312512489145352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01686620601030992</v>
+        <v>0.02525015339657079</v>
       </c>
       <c r="C58">
-        <v>0.01949509254938243</v>
+        <v>-0.01815678834601257</v>
       </c>
       <c r="D58">
-        <v>0.344450611186346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3764916804121448</v>
+      </c>
+      <c r="E58">
+        <v>-0.1923335610943788</v>
+      </c>
+      <c r="F58">
+        <v>-0.1423420447835695</v>
+      </c>
+      <c r="G58">
+        <v>-0.263745483273889</v>
+      </c>
+      <c r="H58">
+        <v>-0.4075778712699161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.135125965337368</v>
+        <v>0.1775835146507705</v>
       </c>
       <c r="C59">
-        <v>0.1934198885591953</v>
+        <v>0.167811461769644</v>
       </c>
       <c r="D59">
-        <v>0.031343907054773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05266299367336744</v>
+      </c>
+      <c r="E59">
+        <v>-0.01798638286473465</v>
+      </c>
+      <c r="F59">
+        <v>0.04124860776225631</v>
+      </c>
+      <c r="G59">
+        <v>-0.0006099502285240486</v>
+      </c>
+      <c r="H59">
+        <v>-0.02512569613139689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.24778180468698</v>
+        <v>0.226841568812902</v>
       </c>
       <c r="C60">
-        <v>-0.05398443057805143</v>
+        <v>-0.1046743127602925</v>
       </c>
       <c r="D60">
-        <v>0.1805974215874333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1177043345893016</v>
+      </c>
+      <c r="E60">
+        <v>0.3614432632999821</v>
+      </c>
+      <c r="F60">
+        <v>-0.02825254243302781</v>
+      </c>
+      <c r="G60">
+        <v>0.03120428159709031</v>
+      </c>
+      <c r="H60">
+        <v>-0.1112641314419234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04757151465815508</v>
+        <v>0.03959067098353172</v>
       </c>
       <c r="C61">
-        <v>-0.0549330212445676</v>
+        <v>-0.06190213112865971</v>
       </c>
       <c r="D61">
-        <v>0.09574763074569534</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09221961151785989</v>
+      </c>
+      <c r="E61">
+        <v>-0.004182096557578186</v>
+      </c>
+      <c r="F61">
+        <v>0.01604610899773204</v>
+      </c>
+      <c r="G61">
+        <v>0.00922672521859479</v>
+      </c>
+      <c r="H61">
+        <v>0.07978220026930845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01719601050838229</v>
+        <v>0.01343540343265455</v>
       </c>
       <c r="C63">
-        <v>-0.02462591986721129</v>
+        <v>-0.03348108167580005</v>
       </c>
       <c r="D63">
-        <v>0.06019456229827399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06768567268754434</v>
+      </c>
+      <c r="E63">
+        <v>-0.03136387394171929</v>
+      </c>
+      <c r="F63">
+        <v>-0.01790300197454047</v>
+      </c>
+      <c r="G63">
+        <v>-0.001363630468268673</v>
+      </c>
+      <c r="H63">
+        <v>0.05416820072118668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.06014357935269257</v>
+        <v>0.05290561730596997</v>
       </c>
       <c r="C64">
-        <v>-0.06292775297092942</v>
+        <v>-0.08195631630308739</v>
       </c>
       <c r="D64">
-        <v>0.05646218068333968</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05405920992240764</v>
+      </c>
+      <c r="E64">
+        <v>-0.02693232510611224</v>
+      </c>
+      <c r="F64">
+        <v>0.01345627510854451</v>
+      </c>
+      <c r="G64">
+        <v>0.05525966784632091</v>
+      </c>
+      <c r="H64">
+        <v>0.06226115770236581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05060671636222192</v>
+        <v>0.04710078181678837</v>
       </c>
       <c r="C65">
-        <v>-0.001348145828629838</v>
+        <v>-0.02510999248263001</v>
       </c>
       <c r="D65">
-        <v>0.1107216253374417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1154980701495742</v>
+      </c>
+      <c r="E65">
+        <v>-0.001373759290793027</v>
+      </c>
+      <c r="F65">
+        <v>-0.0187398317080675</v>
+      </c>
+      <c r="G65">
+        <v>-0.0318626653383305</v>
+      </c>
+      <c r="H65">
+        <v>-0.02188307417126403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04642786593005434</v>
+        <v>0.03963268091468604</v>
       </c>
       <c r="C66">
-        <v>-0.05825020640732417</v>
+        <v>-0.07528144603517414</v>
       </c>
       <c r="D66">
-        <v>0.1105705242969525</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1294973524442126</v>
+      </c>
+      <c r="E66">
+        <v>-0.01402139634839331</v>
+      </c>
+      <c r="F66">
+        <v>0.01041657809322738</v>
+      </c>
+      <c r="G66">
+        <v>-0.0133809806809354</v>
+      </c>
+      <c r="H66">
+        <v>0.05746301262182102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04108252478442098</v>
+        <v>0.03654801282034243</v>
       </c>
       <c r="C67">
-        <v>-0.01912552375183676</v>
+        <v>-0.02662704274910073</v>
       </c>
       <c r="D67">
-        <v>0.02129860675606106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01931209482502849</v>
+      </c>
+      <c r="E67">
+        <v>-0.01633484152557002</v>
+      </c>
+      <c r="F67">
+        <v>-0.0006056984439687705</v>
+      </c>
+      <c r="G67">
+        <v>-0.03456144459009089</v>
+      </c>
+      <c r="H67">
+        <v>0.03839550402283558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.156104554408048</v>
+        <v>0.1966528117442106</v>
       </c>
       <c r="C68">
-        <v>0.2483581472209899</v>
+        <v>0.1989216076969316</v>
       </c>
       <c r="D68">
-        <v>-0.02082978784006324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01144977410712075</v>
+      </c>
+      <c r="E68">
+        <v>-0.05426428530909921</v>
+      </c>
+      <c r="F68">
+        <v>-0.02971549851416129</v>
+      </c>
+      <c r="G68">
+        <v>-0.01134363662726559</v>
+      </c>
+      <c r="H68">
+        <v>-0.002962778277263957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08725152041326879</v>
+        <v>0.07480614369917282</v>
       </c>
       <c r="C69">
-        <v>-0.08004640091846076</v>
+        <v>-0.09666498310586855</v>
       </c>
       <c r="D69">
-        <v>0.06245957857353642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04578408204952382</v>
+      </c>
+      <c r="E69">
+        <v>-0.02510070385421414</v>
+      </c>
+      <c r="F69">
+        <v>-0.007413066849565217</v>
+      </c>
+      <c r="G69">
+        <v>0.03158186913254173</v>
+      </c>
+      <c r="H69">
+        <v>0.03331948391498755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1361512215874864</v>
+        <v>0.1826313047205476</v>
       </c>
       <c r="C71">
-        <v>0.2434463706337134</v>
+        <v>0.2100949879302342</v>
       </c>
       <c r="D71">
-        <v>0.0174939919293456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03571871492393072</v>
+      </c>
+      <c r="E71">
+        <v>-0.05245541676969284</v>
+      </c>
+      <c r="F71">
+        <v>-0.03478647728655351</v>
+      </c>
+      <c r="G71">
+        <v>0.01713115345434749</v>
+      </c>
+      <c r="H71">
+        <v>0.02248277115306123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09790961255504894</v>
+        <v>0.09748311432075001</v>
       </c>
       <c r="C72">
-        <v>-0.03802087605386656</v>
+        <v>-0.0696983617577942</v>
       </c>
       <c r="D72">
-        <v>0.08624794400101335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09289258020922261</v>
+      </c>
+      <c r="E72">
+        <v>0.03571826738561586</v>
+      </c>
+      <c r="F72">
+        <v>-0.03760932386233251</v>
+      </c>
+      <c r="G72">
+        <v>0.03432461883585625</v>
+      </c>
+      <c r="H72">
+        <v>0.03993950128984739</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2718712501184006</v>
+        <v>0.2425336304449665</v>
       </c>
       <c r="C73">
-        <v>0.003999018109848289</v>
+        <v>-0.08661069646812439</v>
       </c>
       <c r="D73">
-        <v>0.298120334681091</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1771644919404539</v>
+      </c>
+      <c r="E73">
+        <v>0.6695422680180685</v>
+      </c>
+      <c r="F73">
+        <v>-0.01183378278926801</v>
+      </c>
+      <c r="G73">
+        <v>0.01189132315641664</v>
+      </c>
+      <c r="H73">
+        <v>-0.151582660890437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.109326072672983</v>
+        <v>0.09859531446201555</v>
       </c>
       <c r="C74">
-        <v>-0.07162320883599496</v>
+        <v>-0.09110750516805369</v>
       </c>
       <c r="D74">
-        <v>0.01314236953712796</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.003977793970508943</v>
+      </c>
+      <c r="E74">
+        <v>-0.07739642562812735</v>
+      </c>
+      <c r="F74">
+        <v>-0.06265976459119164</v>
+      </c>
+      <c r="G74">
+        <v>0.05995985504886904</v>
+      </c>
+      <c r="H74">
+        <v>-0.02913396614654579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2526112966138209</v>
+        <v>0.2278032578358611</v>
       </c>
       <c r="C75">
-        <v>-0.1178874505357246</v>
+        <v>-0.1671961389656557</v>
       </c>
       <c r="D75">
-        <v>-0.06798504587550284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0950216012974734</v>
+      </c>
+      <c r="E75">
+        <v>-0.1032837569255761</v>
+      </c>
+      <c r="F75">
+        <v>-0.004193047024801575</v>
+      </c>
+      <c r="G75">
+        <v>0.05089904312884633</v>
+      </c>
+      <c r="H75">
+        <v>-0.1146608462639471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1441704929422672</v>
+        <v>0.1270331779675928</v>
       </c>
       <c r="C76">
-        <v>-0.08553618336137428</v>
+        <v>-0.1148379944321482</v>
       </c>
       <c r="D76">
-        <v>-0.004903822838490176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01223700104335367</v>
+      </c>
+      <c r="E76">
+        <v>-0.1163715645287404</v>
+      </c>
+      <c r="F76">
+        <v>-0.02222772715762609</v>
+      </c>
+      <c r="G76">
+        <v>0.04584399885589201</v>
+      </c>
+      <c r="H76">
+        <v>0.00695159227889961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06820229855049854</v>
+        <v>0.0610475037710939</v>
       </c>
       <c r="C77">
-        <v>-0.05855481860723366</v>
+        <v>-0.07057978294844497</v>
       </c>
       <c r="D77">
-        <v>0.04361795505584347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1290257289321876</v>
+      </c>
+      <c r="E77">
+        <v>-0.213689019372934</v>
+      </c>
+      <c r="F77">
+        <v>0.2423577927238139</v>
+      </c>
+      <c r="G77">
+        <v>-0.2387660682385536</v>
+      </c>
+      <c r="H77">
+        <v>-0.4003877442637431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04372717043790198</v>
+        <v>0.04270023107336371</v>
       </c>
       <c r="C78">
-        <v>-0.05114241182074226</v>
+        <v>-0.06662380843017401</v>
       </c>
       <c r="D78">
-        <v>0.1168130163909665</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1325315285536521</v>
+      </c>
+      <c r="E78">
+        <v>-0.01737000068773512</v>
+      </c>
+      <c r="F78">
+        <v>-0.01085994458044832</v>
+      </c>
+      <c r="G78">
+        <v>0.01480520751708841</v>
+      </c>
+      <c r="H78">
+        <v>0.02520108303834677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.01642900019266018</v>
+        <v>0.04543887666405885</v>
       </c>
       <c r="C79">
-        <v>-0.0658059748760171</v>
+        <v>-0.09033706615493853</v>
       </c>
       <c r="D79">
-        <v>-0.005385908938208467</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02312843561005048</v>
+      </c>
+      <c r="E79">
+        <v>-0.1939425732898756</v>
+      </c>
+      <c r="F79">
+        <v>-0.1314616619175053</v>
+      </c>
+      <c r="G79">
+        <v>0.7151162873098629</v>
+      </c>
+      <c r="H79">
+        <v>-0.3706120190349431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03368745085211134</v>
+        <v>0.02555259219011566</v>
       </c>
       <c r="C80">
-        <v>-0.02873236496888157</v>
+        <v>-0.04410434829958707</v>
       </c>
       <c r="D80">
-        <v>0.02486784217639883</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03233140882478139</v>
+      </c>
+      <c r="E80">
+        <v>-0.02143840330665179</v>
+      </c>
+      <c r="F80">
+        <v>0.03459173060469247</v>
+      </c>
+      <c r="G80">
+        <v>-0.04731227505254906</v>
+      </c>
+      <c r="H80">
+        <v>0.02221743378247646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1460758740817837</v>
+        <v>0.1264238778793814</v>
       </c>
       <c r="C81">
-        <v>-0.0896451878531322</v>
+        <v>-0.1179487477362904</v>
       </c>
       <c r="D81">
-        <v>-0.05158818956216731</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0658890593866005</v>
+      </c>
+      <c r="E81">
+        <v>-0.1163612917904159</v>
+      </c>
+      <c r="F81">
+        <v>-0.02296636669644232</v>
+      </c>
+      <c r="G81">
+        <v>0.04775029967684941</v>
+      </c>
+      <c r="H81">
+        <v>-0.01363887905448271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3158118758620218</v>
+        <v>0.2515517971780229</v>
       </c>
       <c r="C82">
-        <v>-0.2631214330759938</v>
+        <v>-0.2651238339399274</v>
       </c>
       <c r="D82">
-        <v>-0.2331125025909229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2321761322294148</v>
+      </c>
+      <c r="E82">
+        <v>0.02107330750047712</v>
+      </c>
+      <c r="F82">
+        <v>-0.03663400059029781</v>
+      </c>
+      <c r="G82">
+        <v>0.08635782850590733</v>
+      </c>
+      <c r="H82">
+        <v>0.411343303332727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03175231964681272</v>
+        <v>0.02385993965420794</v>
       </c>
       <c r="C83">
-        <v>-0.04485964744166237</v>
+        <v>-0.05088686047740384</v>
       </c>
       <c r="D83">
-        <v>0.04971535297365213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05139968505630801</v>
+      </c>
+      <c r="E83">
+        <v>-0.01961080438866511</v>
+      </c>
+      <c r="F83">
+        <v>0.02267474330176008</v>
+      </c>
+      <c r="G83">
+        <v>-0.01900671815036013</v>
+      </c>
+      <c r="H83">
+        <v>0.01618324500326181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002178192521882959</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004807610444614556</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01706675281503068</v>
+      </c>
+      <c r="E84">
+        <v>-0.01556505349078926</v>
+      </c>
+      <c r="F84">
+        <v>-0.008542310020499551</v>
+      </c>
+      <c r="G84">
+        <v>-0.007198638734676927</v>
+      </c>
+      <c r="H84">
+        <v>0.003425992724330994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1825470165286728</v>
+        <v>0.158726839061714</v>
       </c>
       <c r="C85">
-        <v>-0.09072021274015368</v>
+        <v>-0.133909464183523</v>
       </c>
       <c r="D85">
-        <v>-0.03657521568889833</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06415252832059989</v>
+      </c>
+      <c r="E85">
+        <v>-0.05030762608865907</v>
+      </c>
+      <c r="F85">
+        <v>-0.03728658259172992</v>
+      </c>
+      <c r="G85">
+        <v>0.09237408822693058</v>
+      </c>
+      <c r="H85">
+        <v>-0.08070147546868374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01754652373874635</v>
+        <v>0.01893900098229183</v>
       </c>
       <c r="C86">
-        <v>-0.02197301118216147</v>
+        <v>-0.02246309655703775</v>
       </c>
       <c r="D86">
-        <v>0.1397170047837437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1274692801933747</v>
+      </c>
+      <c r="E86">
+        <v>-0.009871560168504987</v>
+      </c>
+      <c r="F86">
+        <v>0.01747498799720756</v>
+      </c>
+      <c r="G86">
+        <v>-0.00195866319924865</v>
+      </c>
+      <c r="H86">
+        <v>0.0526686717848176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02908085692510722</v>
+        <v>0.03410464104984922</v>
       </c>
       <c r="C87">
-        <v>-0.00210372812552692</v>
+        <v>-0.0248834288472083</v>
       </c>
       <c r="D87">
-        <v>0.09824363974560432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.135595624016658</v>
+      </c>
+      <c r="E87">
+        <v>-0.08415622145570835</v>
+      </c>
+      <c r="F87">
+        <v>0.008040139486218345</v>
+      </c>
+      <c r="G87">
+        <v>-0.01885393924061584</v>
+      </c>
+      <c r="H87">
+        <v>0.03357845152246468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07951771661133288</v>
+        <v>0.06895949453543229</v>
       </c>
       <c r="C88">
-        <v>-0.03443087046507701</v>
+        <v>-0.05698662173245165</v>
       </c>
       <c r="D88">
-        <v>0.03494743616296787</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0174368386238438</v>
+      </c>
+      <c r="E88">
+        <v>-0.01818746078747236</v>
+      </c>
+      <c r="F88">
+        <v>-0.008870047259095529</v>
+      </c>
+      <c r="G88">
+        <v>0.001073852812633269</v>
+      </c>
+      <c r="H88">
+        <v>0.04271926466829409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1955117635869901</v>
+        <v>0.2806035471982028</v>
       </c>
       <c r="C89">
-        <v>0.3845800465750638</v>
+        <v>0.3552362076625373</v>
       </c>
       <c r="D89">
-        <v>-0.02611499880606101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001262867023584859</v>
+      </c>
+      <c r="E89">
+        <v>-0.05032973020114721</v>
+      </c>
+      <c r="F89">
+        <v>0.04650301514941346</v>
+      </c>
+      <c r="G89">
+        <v>0.04677365016483193</v>
+      </c>
+      <c r="H89">
+        <v>0.08778126965301929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1891865952025167</v>
+        <v>0.2422663472207043</v>
       </c>
       <c r="C90">
-        <v>0.3012283618825431</v>
+        <v>0.2539059020412674</v>
       </c>
       <c r="D90">
-        <v>-0.02879786536883594</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01238390468773842</v>
+      </c>
+      <c r="E90">
+        <v>-0.04345964557977851</v>
+      </c>
+      <c r="F90">
+        <v>-0.01257496280799247</v>
+      </c>
+      <c r="G90">
+        <v>-0.04964353176845313</v>
+      </c>
+      <c r="H90">
+        <v>0.04092634375977724</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1872351618988369</v>
+        <v>0.1593382594618488</v>
       </c>
       <c r="C91">
-        <v>-0.1356997645705273</v>
+        <v>-0.1586559478646536</v>
       </c>
       <c r="D91">
-        <v>-0.06725026174639739</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0847147461825436</v>
+      </c>
+      <c r="E91">
+        <v>-0.1081635102961207</v>
+      </c>
+      <c r="F91">
+        <v>-0.02591492370050075</v>
+      </c>
+      <c r="G91">
+        <v>0.09044442835634009</v>
+      </c>
+      <c r="H91">
+        <v>-0.08965961995705367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1640980214007875</v>
+        <v>0.2233502112605931</v>
       </c>
       <c r="C92">
-        <v>0.2942148480617459</v>
+        <v>0.270149773692589</v>
       </c>
       <c r="D92">
-        <v>0.007655691011400606</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03023469925010608</v>
+      </c>
+      <c r="E92">
+        <v>-0.08874732792923939</v>
+      </c>
+      <c r="F92">
+        <v>0.01193387048822904</v>
+      </c>
+      <c r="G92">
+        <v>-0.01081631004713539</v>
+      </c>
+      <c r="H92">
+        <v>0.03635392438364751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2172411068781312</v>
+        <v>0.2664691416225627</v>
       </c>
       <c r="C93">
-        <v>0.3253681402006776</v>
+        <v>0.2663069686426067</v>
       </c>
       <c r="D93">
-        <v>-0.005724230931405491</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006450753801709472</v>
+      </c>
+      <c r="E93">
+        <v>-0.01224858170170208</v>
+      </c>
+      <c r="F93">
+        <v>-0.02195369416272693</v>
+      </c>
+      <c r="G93">
+        <v>0.003632648795320887</v>
+      </c>
+      <c r="H93">
+        <v>-0.003408518179742441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4018809747237376</v>
+        <v>0.3384993374964112</v>
       </c>
       <c r="C94">
-        <v>-0.2012425406063992</v>
+        <v>-0.2662739457138295</v>
       </c>
       <c r="D94">
-        <v>-0.4605590355567503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4306484714368984</v>
+      </c>
+      <c r="E94">
+        <v>-0.09140178128747911</v>
+      </c>
+      <c r="F94">
+        <v>0.02260302223466016</v>
+      </c>
+      <c r="G94">
+        <v>-0.4802025475329255</v>
+      </c>
+      <c r="H94">
+        <v>-0.1242582064490761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0778010041267167</v>
+        <v>0.0668148281048748</v>
       </c>
       <c r="C95">
-        <v>-0.06875814975063689</v>
+        <v>-0.06592562197845131</v>
       </c>
       <c r="D95">
-        <v>0.1279387091893832</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09059572986357804</v>
+      </c>
+      <c r="E95">
+        <v>-0.01353635303464621</v>
+      </c>
+      <c r="F95">
+        <v>0.9171008251323138</v>
+      </c>
+      <c r="G95">
+        <v>0.1419712534721081</v>
+      </c>
+      <c r="H95">
+        <v>0.0009727344098210615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1714359817692935</v>
+        <v>0.1611276537205108</v>
       </c>
       <c r="C98">
-        <v>-0.01352233150380145</v>
+        <v>-0.06680603324620842</v>
       </c>
       <c r="D98">
-        <v>0.1699530866228399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1331010808805273</v>
+      </c>
+      <c r="E98">
+        <v>0.3175658034013842</v>
+      </c>
+      <c r="F98">
+        <v>-0.04717301663245575</v>
+      </c>
+      <c r="G98">
+        <v>0.04617745853687585</v>
+      </c>
+      <c r="H98">
+        <v>-0.05415702796497004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008235103547724889</v>
+        <v>0.006916269824144551</v>
       </c>
       <c r="C101">
-        <v>-0.01839801553821279</v>
+        <v>-0.02284334947234175</v>
       </c>
       <c r="D101">
-        <v>0.06308527274863489</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08128005257356642</v>
+      </c>
+      <c r="E101">
+        <v>-0.03428619985630494</v>
+      </c>
+      <c r="F101">
+        <v>-0.006436082932929549</v>
+      </c>
+      <c r="G101">
+        <v>0.008596720094015629</v>
+      </c>
+      <c r="H101">
+        <v>0.114380388951717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.129214680068304</v>
+        <v>0.1064542627320969</v>
       </c>
       <c r="C102">
-        <v>-0.1108106806024537</v>
+        <v>-0.1185420408936811</v>
       </c>
       <c r="D102">
-        <v>-0.03766382656187445</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05622938907952432</v>
+      </c>
+      <c r="E102">
+        <v>-0.03158814326950064</v>
+      </c>
+      <c r="F102">
+        <v>0.02292073252392338</v>
+      </c>
+      <c r="G102">
+        <v>0.0340438620459865</v>
+      </c>
+      <c r="H102">
+        <v>0.0248330162421643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
